--- a/xlsx/country_comparison/radical_redistr_weight_vote_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_weight_vote_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -64,11 +67,12 @@
     <t xml:space="preserve">Prefers sustainable future*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas*</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -451,22 +455,25 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.683286671200591</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.706678441402855</v>
+        <v>0.706686055615429</v>
       </c>
       <c r="E2" t="n">
-        <v>0.715650934020775</v>
+        <v>0.715752239764133</v>
       </c>
       <c r="F2" t="n">
         <v>0.834827342059476</v>
@@ -481,33 +488,36 @@
         <v>0.672445823272557</v>
       </c>
       <c r="J2" t="n">
-        <v>0.602379956471101</v>
+        <v>0.602424252514088</v>
       </c>
       <c r="K2" t="n">
-        <v>0.681917437420427</v>
+        <v>0.682013271384537</v>
       </c>
       <c r="L2" t="n">
+        <v>0.754855071318372</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.604501057327825</v>
+      <c r="N2" t="n">
+        <v>0.604591275428631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.623345952924007</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.670214308621622</v>
+        <v>0.670160966971024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.612347612588511</v>
+        <v>0.612306271966707</v>
       </c>
       <c r="F3" t="n">
         <v>0.658762424973484</v>
@@ -522,33 +532,36 @@
         <v>0.670257454138958</v>
       </c>
       <c r="J3" t="n">
-        <v>0.441122428196843</v>
+        <v>0.441217832315509</v>
       </c>
       <c r="K3" t="n">
-        <v>0.563483338852377</v>
+        <v>0.563411377295133</v>
       </c>
       <c r="L3" t="n">
+        <v>0.756622372880961</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.565718544334634</v>
+      <c r="N3" t="n">
+        <v>0.565792434957972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.710773440812668</v>
+        <v>0.710751335841921</v>
       </c>
       <c r="E4" t="n">
-        <v>0.695981035012071</v>
+        <v>0.696003924106409</v>
       </c>
       <c r="F4" t="n">
         <v>0.737965271621624</v>
@@ -563,33 +576,36 @@
         <v>0.666574918268333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.65293375135168</v>
+        <v>0.652980895956235</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754784211339527</v>
+        <v>0.754892621650637</v>
       </c>
       <c r="L4" t="n">
+        <v>0.688615273248795</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.608619626364898</v>
+      <c r="N4" t="n">
+        <v>0.608689412107398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.690994277929796</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.759614910705789</v>
+        <v>0.75960823962409</v>
       </c>
       <c r="E5" t="n">
-        <v>0.752515552639729</v>
+        <v>0.752528328706516</v>
       </c>
       <c r="F5" t="n">
         <v>0.867295758864172</v>
@@ -604,74 +620,78 @@
         <v>0.655128699473347</v>
       </c>
       <c r="J5" t="n">
-        <v>0.669090079491446</v>
+        <v>0.669126297277889</v>
       </c>
       <c r="K5" t="n">
-        <v>0.698150498715684</v>
+        <v>0.698143109008355</v>
       </c>
       <c r="L5" t="n">
+        <v>0.778963825426238</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.930231790695484</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.538616984420458</v>
+      <c r="N5" t="n">
+        <v>0.538831041480574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.505678209373274</v>
+        <v>0.68447503664547</v>
       </c>
       <c r="E6" t="n">
-        <v>0.520407584754536</v>
+        <v>0.679242709384061</v>
       </c>
       <c r="F6" t="n">
-        <v>0.553810444165395</v>
+        <v>0.792515487565139</v>
       </c>
       <c r="G6" t="n">
-        <v>0.538249182222182</v>
+        <v>0.677577969433519</v>
       </c>
       <c r="H6" t="n">
-        <v>0.566137320948456</v>
+        <v>0.746395684069502</v>
       </c>
       <c r="I6" t="n">
-        <v>0.553406674652481</v>
+        <v>0.670549607279346</v>
       </c>
       <c r="J6" t="n">
-        <v>0.489162086630028</v>
+        <v>0.648965346480897</v>
       </c>
       <c r="K6" t="n">
-        <v>0.482155443961389</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.404576421408372</v>
-      </c>
+        <v>0.531016915460678</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.480727613719715</v>
+        <v>0.727098526374066</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.646544698767764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.682646370364011</v>
+        <v>0.682631646934764</v>
       </c>
       <c r="C7" t="n">
         <v>0.724046548532723</v>
       </c>
       <c r="D7" t="n">
-        <v>0.689529389793229</v>
+        <v>0.689465538250873</v>
       </c>
       <c r="E7" t="n">
-        <v>0.689447201365214</v>
+        <v>0.689394934482699</v>
       </c>
       <c r="F7" t="n">
         <v>0.751789429837018</v>
@@ -686,31 +706,32 @@
         <v>0.684426369881336</v>
       </c>
       <c r="J7" t="n">
-        <v>0.583152065827353</v>
+        <v>0.583220819262455</v>
       </c>
       <c r="K7" t="n">
-        <v>0.523255746316249</v>
+        <v>0.523276157925433</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.631054795348027</v>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.631067982510837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451810364536854</v>
       </c>
       <c r="C8" t="n">
         <v>0.502618407568093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.463287880207295</v>
+        <v>0.463329281371558</v>
       </c>
       <c r="E8" t="n">
-        <v>0.433759590974418</v>
+        <v>0.433790299459974</v>
       </c>
       <c r="F8" t="n">
         <v>0.688419172452</v>
@@ -725,25 +746,26 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.382209519053346</v>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.382319057134646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.595124310025602</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.424484742528308</v>
+        <v>0.424482315504333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.615984826738743</v>
+        <v>0.616048671503169</v>
       </c>
       <c r="F9" t="n">
         <v>0.738676843342542</v>
@@ -758,16 +780,19 @@
         <v>0.567600419871133</v>
       </c>
       <c r="J9" t="n">
-        <v>0.54078941267137</v>
+        <v>0.540881108765988</v>
       </c>
       <c r="K9" t="n">
-        <v>0.58124618455403</v>
+        <v>0.58140468127631</v>
       </c>
       <c r="L9" t="n">
+        <v>0.573182308826314</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.888820570273345</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.533027564798775</v>
+      <c r="N9" t="n">
+        <v>0.532961974488893</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_weight_vote_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_weight_vote_share.xlsx
@@ -64,7 +64,7 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefers sustainable future*</t>
+    <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
     <t xml:space="preserve">"Governments should actively cooperate to have all countries
@@ -464,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -494,7 +494,7 @@
         <v>0.682013271384537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -538,7 +538,7 @@
         <v>0.563411377295133</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -552,43 +552,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.710751335841921</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.696003924106409</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.737965271621624</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.546666497937564</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.721638347547208</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.666574918268333</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.652980895956235</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.754892621650637</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688615273248795</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.608689412107398</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -596,43 +596,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75960823962409</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.752528328706516</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.867295758864172</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.82195108507905</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.826866347498458</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.655128699473347</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.669126297277889</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.698143109008355</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M5" t="n">
-        <v>0.930231790695484</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.538831041480574</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="6">
@@ -646,35 +646,37 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68447503664547</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.679242709384061</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.792515487565139</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.677577969433519</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.746395684069502</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.670549607279346</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.648965346480897</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.531016915460678</v>
-      </c>
-      <c r="L6"/>
+        <v>0.559364498889858</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.559364498889858</v>
+      </c>
       <c r="M6" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N6" t="n">
-        <v>0.646544698767764</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="7">
@@ -688,33 +690,33 @@
         <v>0.724046548532723</v>
       </c>
       <c r="D7" t="n">
-        <v>0.689465538250873</v>
+        <v>0.716446447911511</v>
       </c>
       <c r="E7" t="n">
-        <v>0.689394934482699</v>
+        <v>0.705443804036464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.751789429837018</v>
+        <v>0.815943040010246</v>
       </c>
       <c r="G7" t="n">
-        <v>0.553381537254318</v>
+        <v>0.639135429260725</v>
       </c>
       <c r="H7" t="n">
-        <v>0.744064313182991</v>
+        <v>0.765218616839628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.684426369881336</v>
+        <v>0.694592504615592</v>
       </c>
       <c r="J7" t="n">
-        <v>0.583220819262455</v>
+        <v>0.566948275489208</v>
       </c>
       <c r="K7" t="n">
-        <v>0.523276157925433</v>
+        <v>0.557987381952544</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.631067982510837</v>
+        <v>0.670153434751546</v>
       </c>
     </row>
     <row r="8">
@@ -728,27 +730,27 @@
         <v>0.502618407568093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.463329281371558</v>
+        <v>0.438407527923474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.433790299459974</v>
+        <v>0.439022530105316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.688419172452</v>
+        <v>0.693097173376912</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.503152703081262</v>
+        <v>0.510821694970915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.475735061933111</v>
+        <v>0.457151305629475</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.382319057134646</v>
+        <v>0.400676565778138</v>
       </c>
     </row>
     <row r="9">
@@ -756,43 +758,43 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.424482315504333</v>
+        <v>0.432966587857026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.616048671503169</v>
+        <v>0.623667021276442</v>
       </c>
       <c r="F9" t="n">
-        <v>0.738676843342542</v>
+        <v>0.765866950290479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.606726311624124</v>
+        <v>0.633729019702456</v>
       </c>
       <c r="H9" t="n">
-        <v>0.689702367925613</v>
+        <v>0.702512213956321</v>
       </c>
       <c r="I9" t="n">
-        <v>0.567600419871133</v>
+        <v>0.575699232924345</v>
       </c>
       <c r="J9" t="n">
-        <v>0.540881108765988</v>
+        <v>0.53058178548063</v>
       </c>
       <c r="K9" t="n">
-        <v>0.58140468127631</v>
+        <v>0.586217425103406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.573182308826314</v>
+        <v>0.572781630922761</v>
       </c>
       <c r="M9" t="n">
-        <v>0.888820570273345</v>
+        <v>0.887006592651732</v>
       </c>
       <c r="N9" t="n">
-        <v>0.532961974488893</v>
+        <v>0.554098197443099</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_weight_vote_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_weight_vote_share.xlsx
@@ -56,11 +56,11 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 1% to finance global poverty reduction
 (Additional 15% tax on income over [$120k/year in PPP])</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 3% to finance global poverty reduction
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
@@ -79,7 +79,7 @@
 coalition for climate action and global redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
+    <t xml:space="preserve">Accepts reparations for colonization and slavery in
 the form of funding education and technology transfers</t>
   </si>
   <si>
